--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B8FFAC-AA01-46BE-ABAA-B3F76F50F410}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88AFDCF-0031-4999-98A4-0BD61CDDFA67}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="SelectStatTable" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,8 +144,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelectStatRateValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강불괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축지법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운기조식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절호의일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__20.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__21.png</t>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__22.png</t>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__23.png</t>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__24.png</t>
   </si>
 </sst>
 </file>
@@ -405,7 +453,40 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -465,48 +546,49 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="hair">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
         <top style="hair">
           <color auto="1"/>
         </top>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -528,50 +610,52 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
         <right style="hair">
           <color auto="1"/>
         </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -682,27 +766,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}" name="표2" displayName="표2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{59FF4616-DC59-4BD4-89AF-AD9BC77BB752}" name="Enum 명" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{31E68743-F2C7-432C-979D-EF6E8870223C}" name="enum 종류"/>
-    <tableColumn id="5" xr3:uid="{551B61BC-F07B-43AE-836A-D77CB144012D}" name="SelectStatRateValue" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{04A045F8-4606-4755-A055-51883108A140}" name="설명" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류"/>
+    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:D8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:F8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6329419-DE25-48C7-9BB0-F65E2B49D800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54D9656-926C-4E1B-A75C-F46FC83A0FE4}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1042,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>19</v>
@@ -1163,27 +1253,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="3"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.9375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1191,103 +1283,151 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>12006</v>
+        <v>12002</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>12011</v>
+        <v>12003</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>12016</v>
+        <v>12004</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>12021</v>
+        <v>12005</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88AFDCF-0031-4999-98A4-0BD61CDDFA67}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4054488D-7EB1-4F99-991A-F5036A442320}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -456,173 +456,6 @@
   <dxfs count="15">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -634,26 +467,6 @@
         <family val="3"/>
         <charset val="129"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -692,6 +505,26 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -753,6 +586,173 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -771,28 +771,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류"/>
-    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:F8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>12001</v>
+        <v>16000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>12002</v>
+        <v>16001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>12003</v>
+        <v>16002</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>12004</v>
+        <v>16003</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>12005</v>
+        <v>16004</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>37</v>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4054488D-7EB1-4F99-991A-F5036A442320}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8355C-F6B6-42EB-84C1-3A2501B00D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="5280" yWindow="552" windowWidth="15324" windowHeight="10956" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -180,20 +180,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__20.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__21.png</t>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__22.png</t>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__23.png</t>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__24.png</t>
+    <t>Icon/Icon_Flat__20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1101,16 +1105,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -1164,7 +1168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1176,7 +1180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -1188,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -1200,43 +1204,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="20"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1255,22 +1259,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.9375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>16000</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>16001</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>16002</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>16003</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16004</v>
       </c>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8355C-F6B6-42EB-84C1-3A2501B00D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB71B3-2D0B-45E3-997B-ADCEF79E59C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="552" windowWidth="15324" windowHeight="10956" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>Icon/Icon_Flat__24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,23 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -775,28 +795,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류"/>
-    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:F8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A3184252-0CAA-4A91-AED0-77A8B48C7CAF}" name="MaxCount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1271,10 +1292,11 @@
     <col min="4" max="4" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="7" max="7" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,8 +1355,11 @@
       <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>16000</v>
       </c>
@@ -1353,8 +1378,11 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>16001</v>
       </c>
@@ -1373,8 +1401,11 @@
       <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>16002</v>
       </c>
@@ -1393,8 +1424,11 @@
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>16003</v>
       </c>
@@ -1413,8 +1447,11 @@
       <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16004</v>
       </c>
@@ -1432,6 +1469,9 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB71B3-2D0B-45E3-997B-ADCEF79E59C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9891ACD-B8F1-4630-B20D-2DFDC9232AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>MaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,7 +1285,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1315,6 +1319,9 @@
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1327,13 +1334,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1370,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
@@ -1393,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -1416,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -1439,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -1462,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9891ACD-B8F1-4630-B20D-2DFDC9232AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89236509-3696-4CCE-8CF1-F06607A4A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,55 +156,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금강불괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축지법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운기조식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절호의일격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Icon_Flat__20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Icon_Flat__21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Icon_Flat__22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Icon_Flat__23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Icon_Flat__24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점포착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직배리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤이스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스팅연마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서클연마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHealthRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 1초당 최대 체력의 1%를 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 최대 체력의 70%를 즉시 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Icon_Flat__31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectAddValue의 값 만큼 초당 체력을 회복한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectAddValue의 값 만큼 즉시 체력을 회복한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,9 +453,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,15 +465,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,9 +477,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -458,14 +486,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -688,6 +728,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -799,11 +842,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D7" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A2:D9" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류"/>
+    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="9"/>
   </tableColumns>
@@ -812,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G10" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="5"/>
@@ -1127,13 +1170,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
@@ -1154,122 +1197,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1294,7 +1349,7 @@
     <col min="2" max="2" width="9.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="3"/>
@@ -1334,7 +1389,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1363,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1374,7 +1429,7 @@
         <v>16000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1386,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
@@ -1397,7 +1452,7 @@
         <v>16001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1409,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4">
         <v>5</v>
@@ -1420,7 +1475,7 @@
         <v>16002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1432,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
@@ -1443,7 +1498,7 @@
         <v>16003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1455,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -1478,10 +1533,56 @@
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>16005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>16006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89236509-3696-4CCE-8CF1-F06607A4A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7765BB-A2F3-4E0A-9C20-06A7BBCDFE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -25,8 +25,287 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Seonuk Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{6906349C-3B7C-4AA0-BCE2-6A7A83AAD26C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>페이즈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기준</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>먹었을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패턴구간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 30%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 6%
+36%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,26 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 전체 공격력을 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 전체 공격속도를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 이동속도를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 방어력을 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 크리티컬 데미지를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SelectDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,14 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터가 1초당 최대 체력의 1%를 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 최대 체력의 70%를 즉시 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Icon_Flat__35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +496,38 @@
   </si>
   <si>
     <t>SelectAddValue의 값 만큼 즉시 체력을 회복한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 피해량을 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 공격속도를 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 크리티컬 데미지를 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적으로 체력을 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 즉시 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectStatName 인자값 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +568,23 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -450,9 +748,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,13 +794,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <strike val="0"/>
@@ -514,7 +812,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -530,7 +828,23 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -546,7 +860,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -842,29 +1156,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D9" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A2:D9" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4032C0BA-2864-4265-9196-323E38A9059F}" name="Enum 명" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5C5F4C4F-A230-4D41-A175-502225B34EE6}" name="enum 종류" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{BD8C594E-FF65-43BC-BFCE-4C099067D86E}" name="SelectStatRateValue" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3F991F67-2BBD-4B94-94BD-B6476E5F376C}" name="설명" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G10" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:H10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H10" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6FC681EF-AB68-43BC-ADFD-CC9A96607643}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="SelectStatName" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{A3184252-0CAA-4A91-AED0-77A8B48C7CAF}" name="MaxCount" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C6BA0C5D-D868-4187-8D0D-E128920DD621}" name="SelectStatName 인자값 설명" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,7 +1491,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
@@ -1184,147 +1499,147 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>54</v>
+      <c r="D8" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>55</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,11 +1651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1350,17 +1665,18 @@
     <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="3"/>
+    <col min="8" max="8" width="48.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1377,19 +1693,22 @@
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1400,197 +1719,217 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>16000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>16001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>16002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>16003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>0.5</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>16005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="G9" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>16006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>0.7</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="20">
         <v>99</v>
       </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7765BB-A2F3-4E0A-9C20-06A7BBCDFE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD41628-4A32-4420-B701-12FE990DCBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,35 +499,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 스킬의 피해량을 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력을 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 크리티컬 데미지를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속적으로 체력을 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력을 즉시 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SelectStatName 인자값 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: EnchantEffectValue1 * 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 {0}% 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 공격속도를 {0}% 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 피해량을 {0}% 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 {0}% 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 크리티컬 데미지를 {0}% 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 즉시 {0}% 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 체력을 {0}% 회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +820,7 @@
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="none"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -832,7 +836,7 @@
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1178,8 +1182,8 @@
     <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="SelectStatRateValue" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C9F5527E-5E1B-4F02-AE48-4C86428FE4F7}" name="Description" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{33292A04-0117-400B-AAB3-C905E7D91CE1}" name="Icon" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{A3184252-0CAA-4A91-AED0-77A8B48C7CAF}" name="MaxCount" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{C6BA0C5D-D868-4187-8D0D-E128920DD621}" name="SelectStatName 인자값 설명" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A3184252-0CAA-4A91-AED0-77A8B48C7CAF}" name="MaxCount" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C6BA0C5D-D868-4187-8D0D-E128920DD621}" name="SelectStatName 인자값 설명" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,7 +1659,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1746,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1760,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>40</v>
@@ -1771,7 +1775,9 @@
       <c r="G4" s="20">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
@@ -1784,10 +1790,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>41</v>
@@ -1795,7 +1801,9 @@
       <c r="G5" s="20">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1808,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>51</v>
@@ -1819,7 +1827,9 @@
       <c r="G6" s="20">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -1832,10 +1842,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>45</v>
@@ -1843,7 +1853,9 @@
       <c r="G7" s="20">
         <v>5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -1859,7 +1871,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>46</v>
@@ -1867,7 +1879,9 @@
       <c r="G8" s="20">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -1883,7 +1897,7 @@
         <v>1E-3</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>43</v>
@@ -1891,7 +1905,9 @@
       <c r="G9" s="20">
         <v>3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
@@ -1907,7 +1923,7 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>44</v>
@@ -1915,7 +1931,9 @@
       <c r="G10" s="20">
         <v>99</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H11" s="2"/>

--- a/Assets/ExcelDatas/SelectStatData.xlsx
+++ b/Assets/ExcelDatas/SelectStatData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD41628-4A32-4420-B701-12FE990DCBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81BCD0-EB7E-469E-A32B-0A6613FDDBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,10 +356,6 @@
   </si>
   <si>
     <t>enum&lt;SelectStatName&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;SelectStatName&gt;</t>
   </si>
   <si>
     <t>설명</t>
@@ -532,6 +528,38 @@
   </si>
   <si>
     <t>초당 체력을 {0}% 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Status&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1183,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23CFBA72-D7CD-4E12-8DC4-C4270030F955}" name="표2_23" displayName="표2_23" ref="A2:D9" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A2:D9" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -1492,154 +1516,154 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="15.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="18"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="18"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="18"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="18"/>
       <c r="C14" s="6"/>
@@ -1659,28 +1683,28 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1698,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1727,218 +1751,218 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>16000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>0.05</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="20">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>16001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>0.1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="20">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>16002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
         <v>0.1</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="20">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>16003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>0.1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="20">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>16004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
         <v>0.5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="20">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>16005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>1E-3</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="20">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2">
         <v>0.7</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="20">
         <v>99</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
   </sheetData>
